--- a/HomeWork/03 - Interactive Viz/TauxdechômageNationalitées.xlsx
+++ b/HomeWork/03 - Interactive Viz/TauxdechômageNationalitées.xlsx
@@ -1,464 +1,483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/ADA_JEX2017/HomeWork/03 - Interactive Viz/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11715" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
-    <sheet name="2.1 Taux de chômage" sheetId="1" r:id="rId3"/>
+    <sheet name="2.1 Taux de chômage" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="148">
   <si>
     <t>2.1 Taux de chômage</t>
   </si>
   <si>
-    <t xml:space="preserve">Canton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janvier 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Février 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avril 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mai 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juin 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juillet 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Août 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Septembre 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octobre 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novembre 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décembre 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de chômage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chômeurs inscrits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demandeurs d'emploi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demandeurs d'emploi non chômeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etrangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suisses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucerne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nidwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glaris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fribourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soleure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bâle-Ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bâle-Campagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaffhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appenzell Rhodes-Extérieures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appenzell Rhodes-Intérieures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St-Gall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argovie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thurgovie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tessin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuchâtel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genève</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t>Canton</t>
+  </si>
+  <si>
+    <t>Nationalité</t>
+  </si>
+  <si>
+    <t>Mois</t>
+  </si>
+  <si>
+    <t>Janvier 2016</t>
+  </si>
+  <si>
+    <t>Février 2016</t>
+  </si>
+  <si>
+    <t>Mars 2016</t>
+  </si>
+  <si>
+    <t>Avril 2016</t>
+  </si>
+  <si>
+    <t>Mai 2016</t>
+  </si>
+  <si>
+    <t>Juin 2016</t>
+  </si>
+  <si>
+    <t>Juillet 2016</t>
+  </si>
+  <si>
+    <t>Août 2016</t>
+  </si>
+  <si>
+    <t>Septembre 2016</t>
+  </si>
+  <si>
+    <t>Octobre 2016</t>
+  </si>
+  <si>
+    <t>Novembre 2016</t>
+  </si>
+  <si>
+    <t>Décembre 2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mesures</t>
+  </si>
+  <si>
+    <t>Taux de chômage</t>
+  </si>
+  <si>
+    <t>Chômeurs inscrits</t>
+  </si>
+  <si>
+    <t>Demandeurs d'emploi</t>
+  </si>
+  <si>
+    <t>Demandeurs d'emploi non chômeurs</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Etrangers</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Suisses</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Lucerne</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Schwyz</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Obwald</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Nidwald</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Glaris</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Zoug</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Fribourg</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Soleure</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Bâle-Ville</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Bâle-Campagne</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Schaffhouse</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Appenzell Rhodes-Extérieures</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Appenzell Rhodes-Intérieures</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>St-Gall</t>
+  </si>
+  <si>
+    <t>Grisons</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Argovie</t>
+  </si>
+  <si>
+    <t>Thurgovie</t>
+  </si>
+  <si>
+    <t>Tessin</t>
+  </si>
+  <si>
+    <t>Vaud</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>Valais</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Neuchâtel</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>Jura</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Population active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -470,7 +489,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -479,39 +498,313 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/worksheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BC57"/>
+  <dimension ref="A1:BD57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AM35" workbookViewId="0">
+      <selection activeCell="BD5" sqref="BD5:BD57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="52" max="52" width="20.33203125" customWidth="1"/>
+    <col min="53" max="53" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -677,10 +970,11 @@
       <c r="BC3" t="s">
         <v>16</v>
       </c>
+      <c r="BD3" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -841,14 +1135,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -1005,15 +1298,18 @@
       <c r="BC5" s="1">
         <v>38382</v>
       </c>
+      <c r="BD5">
+        <f>100*BA5/(AZ5*12)</f>
+        <v>228383.33333333334</v>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>34</v>
       </c>
@@ -1170,15 +1466,18 @@
       <c r="BC6" s="1">
         <v>42042</v>
       </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD57" si="0">100*BA6/(AZ6*12)</f>
+        <v>585032.73809523822</v>
+      </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>38</v>
       </c>
@@ -1335,15 +1634,18 @@
       <c r="BC7" s="1">
         <v>23844</v>
       </c>
+      <c r="BD7">
+        <f t="shared" si="0"/>
+        <v>89105.128205128203</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>43</v>
       </c>
@@ -1500,15 +1802,18 @@
       <c r="BC8" s="1">
         <v>33769</v>
       </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>474566.66666666669</v>
+      </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -1665,15 +1970,18 @@
       <c r="BC9" s="1">
         <v>16134</v>
       </c>
+      <c r="BD9">
+        <f t="shared" si="0"/>
+        <v>40650.709219858152</v>
+      </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -1830,15 +2138,18 @@
       <c r="BC10" s="1">
         <v>18244</v>
       </c>
+      <c r="BD10">
+        <f t="shared" si="0"/>
+        <v>179411.11111111112</v>
+      </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -1995,15 +2306,18 @@
       <c r="BC11" s="1">
         <v>992</v>
       </c>
+      <c r="BD11">
+        <f t="shared" si="0"/>
+        <v>2535.7142857142853</v>
+      </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>65</v>
       </c>
@@ -2160,15 +2474,18 @@
       <c r="BC12" s="1">
         <v>951</v>
       </c>
+      <c r="BD12">
+        <f t="shared" si="0"/>
+        <v>15833.333333333336</v>
+      </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -2325,15 +2642,18 @@
       <c r="BC13" s="1">
         <v>4603</v>
       </c>
+      <c r="BD13">
+        <f t="shared" si="0"/>
+        <v>18049.145299145301</v>
+      </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>74</v>
       </c>
@@ -2490,15 +2810,18 @@
       <c r="BC14" s="1">
         <v>4426</v>
       </c>
+      <c r="BD14">
+        <f t="shared" si="0"/>
+        <v>69437.5</v>
+      </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -2655,15 +2978,18 @@
       <c r="BC15" s="1">
         <v>919</v>
       </c>
+      <c r="BD15">
+        <f t="shared" si="0"/>
+        <v>3125</v>
+      </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>68</v>
       </c>
@@ -2820,15 +3146,18 @@
       <c r="BC16" s="1">
         <v>1039</v>
       </c>
+      <c r="BD16">
+        <f t="shared" si="0"/>
+        <v>17035.71428571429</v>
+      </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>60</v>
       </c>
@@ -2985,15 +3314,18 @@
       <c r="BC17" s="1">
         <v>1128</v>
       </c>
+      <c r="BD17">
+        <f t="shared" si="0"/>
+        <v>3260.7526881720428</v>
+      </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>85</v>
       </c>
@@ -3150,15 +3482,18 @@
       <c r="BC18" s="1">
         <v>1684</v>
       </c>
+      <c r="BD18">
+        <f t="shared" si="0"/>
+        <v>22124.999999999996</v>
+      </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>32</v>
       </c>
@@ -3315,15 +3650,18 @@
       <c r="BC19" s="1">
         <v>2364</v>
       </c>
+      <c r="BD19">
+        <f t="shared" si="0"/>
+        <v>5375.850340136054</v>
+      </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>56</v>
       </c>
@@ -3480,15 +3818,18 @@
       <c r="BC20" s="1">
         <v>1429</v>
       </c>
+      <c r="BD20">
+        <f t="shared" si="0"/>
+        <v>16739.583333333332</v>
+      </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>52</v>
       </c>
@@ -3645,15 +3986,18 @@
       <c r="BC21" s="1">
         <v>6115</v>
       </c>
+      <c r="BD21">
+        <f t="shared" si="0"/>
+        <v>18393.75</v>
+      </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22"/>
       <c r="D22" t="s">
         <v>91</v>
       </c>
@@ -3810,15 +4154,18 @@
       <c r="BC22" s="1">
         <v>6495</v>
       </c>
+      <c r="BD22">
+        <f t="shared" si="0"/>
+        <v>48166.666666666664</v>
+      </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>93</v>
       </c>
@@ -3975,15 +4322,18 @@
       <c r="BC23" s="1">
         <v>22037</v>
       </c>
+      <c r="BD23">
+        <f t="shared" si="0"/>
+        <v>37564.655172413797</v>
+      </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>95</v>
       </c>
@@ -4140,15 +4490,18 @@
       <c r="BC24" s="1">
         <v>21824</v>
       </c>
+      <c r="BD24">
+        <f t="shared" si="0"/>
+        <v>129736.84210526317</v>
+      </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25"/>
       <c r="D25" t="s">
         <v>41</v>
       </c>
@@ -4305,15 +4658,18 @@
       <c r="BC25" s="1">
         <v>14432</v>
       </c>
+      <c r="BD25">
+        <f t="shared" si="0"/>
+        <v>31597.457627118638</v>
+      </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26"/>
       <c r="D26" t="s">
         <v>95</v>
       </c>
@@ -4470,15 +4826,18 @@
       <c r="BC26" s="1">
         <v>16285</v>
       </c>
+      <c r="BD26">
+        <f t="shared" si="0"/>
+        <v>116682.53968253967</v>
+      </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27"/>
       <c r="D27" t="s">
         <v>29</v>
       </c>
@@ -4635,15 +4994,18 @@
       <c r="BC27" s="1">
         <v>10529</v>
       </c>
+      <c r="BD27">
+        <f t="shared" si="0"/>
+        <v>38893.081761006295</v>
+      </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28"/>
       <c r="D28" t="s">
         <v>36</v>
       </c>
@@ -4800,15 +5162,18 @@
       <c r="BC28" s="1">
         <v>9505</v>
       </c>
+      <c r="BD28">
+        <f t="shared" si="0"/>
+        <v>61063.218390804606</v>
+      </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29"/>
       <c r="D29" t="s">
         <v>31</v>
       </c>
@@ -4965,15 +5330,18 @@
       <c r="BC29" s="1">
         <v>7892</v>
       </c>
+      <c r="BD29">
+        <f t="shared" si="0"/>
+        <v>33476.851851851847</v>
+      </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30"/>
       <c r="D30" t="s">
         <v>101</v>
       </c>
@@ -5130,15 +5498,18 @@
       <c r="BC30" s="1">
         <v>9082</v>
       </c>
+      <c r="BD30">
+        <f t="shared" si="0"/>
+        <v>114655.79710144928</v>
+      </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>97</v>
       </c>
@@ -5295,15 +5666,18 @@
       <c r="BC31" s="1">
         <v>6883</v>
       </c>
+      <c r="BD31">
+        <f t="shared" si="0"/>
+        <v>11679.687499999998</v>
+      </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32"/>
       <c r="D32" t="s">
         <v>101</v>
       </c>
@@ -5460,15 +5834,18 @@
       <c r="BC32" s="1">
         <v>6652</v>
       </c>
+      <c r="BD32">
+        <f t="shared" si="0"/>
+        <v>31378.787878787876</v>
+      </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33"/>
       <c r="D33" t="s">
         <v>48</v>
       </c>
@@ -5625,15 +6002,18 @@
       <c r="BC33" s="1">
         <v>1813</v>
       </c>
+      <c r="BD33">
+        <f t="shared" si="0"/>
+        <v>5260.6837606837607</v>
+      </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>57</v>
       </c>
@@ -5790,15 +6170,18 @@
       <c r="BC34" s="1">
         <v>2922</v>
       </c>
+      <c r="BD34">
+        <f t="shared" si="0"/>
+        <v>25190.476190476194</v>
+      </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="C35"/>
       <c r="D35" t="s">
         <v>47</v>
       </c>
@@ -5955,15 +6338,18 @@
       <c r="BC35" s="1">
         <v>190</v>
       </c>
+      <c r="BD35">
+        <f t="shared" si="0"/>
+        <v>1153.8461538461538</v>
+      </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36"/>
       <c r="D36" t="s">
         <v>65</v>
       </c>
@@ -6120,15 +6506,18 @@
       <c r="BC36" s="1">
         <v>329</v>
       </c>
+      <c r="BD36">
+        <f t="shared" si="0"/>
+        <v>7642.857142857144</v>
+      </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C37"/>
       <c r="D37" t="s">
         <v>30</v>
       </c>
@@ -6285,15 +6674,18 @@
       <c r="BC37" s="1">
         <v>27434</v>
       </c>
+      <c r="BD37">
+        <f t="shared" si="0"/>
+        <v>67808.823529411777</v>
+      </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38"/>
       <c r="D38" t="s">
         <v>91</v>
       </c>
@@ -6450,15 +6842,18 @@
       <c r="BC38" s="1">
         <v>27451</v>
       </c>
+      <c r="BD38">
+        <f t="shared" si="0"/>
+        <v>206906.86274509804</v>
+      </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
-      <c r="C39"/>
       <c r="D39" t="s">
         <v>28</v>
       </c>
@@ -6615,15 +7010,18 @@
       <c r="BC39" s="1">
         <v>10306</v>
       </c>
+      <c r="BD39">
+        <f t="shared" si="0"/>
+        <v>22693.840579710148</v>
+      </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>110</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40"/>
       <c r="D40" t="s">
         <v>76</v>
       </c>
@@ -6780,15 +7178,18 @@
       <c r="BC40" s="1">
         <v>9107</v>
       </c>
+      <c r="BD40">
+        <f t="shared" si="0"/>
+        <v>84066.666666666672</v>
+      </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>112</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C41"/>
       <c r="D41" t="s">
         <v>41</v>
       </c>
@@ -6945,15 +7346,18 @@
       <c r="BC41" s="1">
         <v>27125</v>
       </c>
+      <c r="BD41">
+        <f t="shared" si="0"/>
+        <v>88379.032258064515</v>
+      </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>112</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42"/>
       <c r="D42" t="s">
         <v>101</v>
       </c>
@@ -7110,15 +7514,18 @@
       <c r="BC42" s="1">
         <v>26778</v>
       </c>
+      <c r="BD42">
+        <f t="shared" si="0"/>
+        <v>272924.24242424243</v>
+      </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>113</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C43"/>
       <c r="D43" t="s">
         <v>31</v>
       </c>
@@ -7275,15 +7682,18 @@
       <c r="BC43" s="1">
         <v>14389</v>
       </c>
+      <c r="BD43">
+        <f t="shared" si="0"/>
+        <v>37986.394557823129</v>
+      </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44"/>
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -7440,15 +7850,18 @@
       <c r="BC44" s="1">
         <v>13821</v>
       </c>
+      <c r="BD44">
+        <f t="shared" si="0"/>
+        <v>113710.7843137255</v>
+      </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>114</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
-      <c r="C45"/>
       <c r="D45" t="s">
         <v>40</v>
       </c>
@@ -7605,15 +8018,18 @@
       <c r="BC45" s="1">
         <v>20665</v>
       </c>
+      <c r="BD45">
+        <f t="shared" si="0"/>
+        <v>50381.172839506165</v>
+      </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>114</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C46"/>
       <c r="D46" t="s">
         <v>84</v>
       </c>
@@ -7770,15 +8186,18 @@
       <c r="BC46" s="1">
         <v>21121</v>
       </c>
+      <c r="BD46">
+        <f t="shared" si="0"/>
+        <v>116904.3209876543</v>
+      </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
-      <c r="C47"/>
       <c r="D47" t="s">
         <v>116</v>
       </c>
@@ -7935,15 +8354,18 @@
       <c r="BC47" s="1">
         <v>47553</v>
       </c>
+      <c r="BD47">
+        <f t="shared" si="0"/>
+        <v>140856.61764705883</v>
+      </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>115</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48"/>
       <c r="D48" t="s">
         <v>60</v>
       </c>
@@ -8100,15 +8522,18 @@
       <c r="BC48" s="1">
         <v>42404</v>
       </c>
+      <c r="BD48">
+        <f t="shared" si="0"/>
+        <v>254525.46296296295</v>
+      </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
-      <c r="C49"/>
       <c r="D49" t="s">
         <v>119</v>
       </c>
@@ -8265,15 +8690,18 @@
       <c r="BC49" s="1">
         <v>23565</v>
       </c>
+      <c r="BD49">
+        <f t="shared" si="0"/>
+        <v>43784.552845528458</v>
+      </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>84</v>
       </c>
@@ -8430,15 +8858,18 @@
       <c r="BC50" s="1">
         <v>20886</v>
       </c>
+      <c r="BD50">
+        <f t="shared" si="0"/>
+        <v>131300</v>
+      </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>127</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
       </c>
-      <c r="C51"/>
       <c r="D51" t="s">
         <v>128</v>
       </c>
@@ -8595,15 +9026,18 @@
       <c r="BC51" s="1">
         <v>9741</v>
       </c>
+      <c r="BD51">
+        <f t="shared" si="0"/>
+        <v>26630.952380952385</v>
+      </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>127</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52"/>
       <c r="D52" t="s">
         <v>64</v>
       </c>
@@ -8760,15 +9194,18 @@
       <c r="BC52" s="1">
         <v>11916</v>
       </c>
+      <c r="BD52">
+        <f t="shared" si="0"/>
+        <v>65372.222222222219</v>
+      </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>136</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C53"/>
       <c r="D53" t="s">
         <v>41</v>
       </c>
@@ -8925,15 +9362,18 @@
       <c r="BC53" s="1">
         <v>22386</v>
       </c>
+      <c r="BD53">
+        <f t="shared" si="0"/>
+        <v>103722.22222222223</v>
+      </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>136</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C54"/>
       <c r="D54" t="s">
         <v>48</v>
       </c>
@@ -9090,15 +9530,18 @@
       <c r="BC54" s="1">
         <v>21145</v>
       </c>
+      <c r="BD54">
+        <f t="shared" si="0"/>
+        <v>131238.09523809524</v>
+      </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>137</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
-      <c r="C55"/>
       <c r="D55" t="s">
         <v>138</v>
       </c>
@@ -9255,15 +9698,18 @@
       <c r="BC55" s="1">
         <v>2608</v>
       </c>
+      <c r="BD55">
+        <f t="shared" si="0"/>
+        <v>5627.3584905660382</v>
+      </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>137</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C56"/>
       <c r="D56" t="s">
         <v>72</v>
       </c>
@@ -9420,15 +9866,18 @@
       <c r="BC56" s="1">
         <v>6026</v>
       </c>
+      <c r="BD56">
+        <f t="shared" si="0"/>
+        <v>31388.095238095237</v>
+      </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>16</v>
       </c>
       <c r="B57" t="s">
         <v>146</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>72</v>
       </c>
@@ -9585,7 +10034,12 @@
       <c r="BC57" s="1">
         <v>741362</v>
       </c>
+      <c r="BD57">
+        <f t="shared" si="0"/>
+        <v>4524757.5757575762</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>